--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-hr/hzero-hr-menu.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/exclude_plugin_menu/plugin-hr/hzero-hr-menu.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="847">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -3120,6 +3120,627 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.batchCreateEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.batchCreatePosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.batchUpdatePosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.disablePosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.enablePosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.updatePosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.batchCreate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.disableUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.enableUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>HPFM.COMPANY</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>HPFM.COST_CENTER</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>HPFM.PARENT_POSITION</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>HPFM.UNIT.COMPANY</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>HPFM.UNIT.DEPARTMENT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>hzero-iam.iam-tenant.selectTenant</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.batchDeleteEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.employeestInPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.list</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.createPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.listPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.queryPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.queryPositionByCode</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.lazyTreeCompanyUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listAllDepartment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listCompanyUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listCompanyUnitByOrgId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listCompanyUnits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listDepartment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listDepartmentUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listDepartmentUnits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.pageCompanyUnits</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.selectByTypeCodes</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.treeCompanyUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.treeDepartmentUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
+    <t>HPFM.PLUS.ALL.DEPARTMENT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
+    <t>HPFM.PLUS.UNIT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>HPFM.PLUS.UNIT.DEPARTMENT</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-69</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-70</t>
+  </si>
+  <si>
+    <t>LOV_POSITION</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-71</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-72</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.createEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-73</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.employeeDetail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-74</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.updateEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-75</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-76</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.listPlusPositionTree</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-77</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.pageUnitUsers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-78</t>
+  </si>
+  <si>
+    <t>hzero-platform.position.queryPositionsByUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-79</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-80</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-81</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-82</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-83</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listDepartmentUnitByCondition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-84</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-85</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listPlusCompanyUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-86</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.listPlusDepartmentUnit</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-87</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.pageUnitDepartment</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-88</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit.pageUnitUsers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-89</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-90</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.updateEmployeeAssign</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-91</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-user.batchInsertEmployees</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-92</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.createOrUpdateEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-93</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.updateEmployeeAndAssign</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-94</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-95</t>
+  </si>
+  <si>
+    <t>hzero-iam.hiam-user.listMultiTenantUsers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-96</t>
+  </si>
+  <si>
+    <t>hzero-import.template-manager.getTemplateInfo</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-97</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-98</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-99</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.employeesNotInPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-100</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-101</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.getEmployeeAssign</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-102</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-assign.listEmployeeAssign</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-103</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-104</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-105</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-user.batchRemoveEmployeeUsers</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-106</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee-user.pageEmployeeUser</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-107</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-108</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-109</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.listAllEnableEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-110</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.listEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-111</t>
+  </si>
+  <si>
+    <t>hzero-platform.employee.queryEmployee</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-112</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-113</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-config.createDetailConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-114</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-config.deleteDetailConfigs</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-115</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-config.pageDetailConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-116</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-config.updateDetailConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-117</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-field.createDetailField</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-118</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-field.deleteDetailFields</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-119</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-field.pageDetailField</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-120</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail-field.updateDetailField</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-121</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail.deleteRuleDetails</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-122</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail.detailRuleConfig</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-123</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail.detailRuleDetail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-124</t>
+  </si>
+  <si>
+    <t>hzero-platform.flex-rule-detail.previewFormula</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-125</t>
+  </si>
+  <si>
+    <t>hzero-platform.unit-aggregate.treeUnitPosition</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-126</t>
+  </si>
+  <si>
+    <t>hzero-report.report.getReportData</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-127</t>
+  </si>
+  <si>
+    <t>hzero-workflow-plus.task.listTaskPage</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-128</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-129</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-130</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-131</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-132</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-133</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-134</t>
+  </si>
+  <si>
+    <t>hzero-platform.workflow-plus-hr.queryEmployeesByEmployeeNum</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -3189,6 +3810,39 @@
     <t>site</t>
   </si>
   <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.HZERO.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
     <t>角色权限</t>
   </si>
   <si>
@@ -3208,6 +3862,453 @@
   </si>
   <si>
     <t>#type</t>
+  </si>
+  <si>
+    <t>iam_role_permission-13</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-14</t>
+  </si>
+  <si>
+    <t>iam_role_permission-15</t>
+  </si>
+  <si>
+    <t>iam_role_permission-16</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
+    <t>iam_role_permission-46</t>
+  </si>
+  <si>
+    <t>iam_role_permission-47</t>
+  </si>
+  <si>
+    <t>iam_role_permission-48</t>
+  </si>
+  <si>
+    <t>iam_role_permission-49</t>
+  </si>
+  <si>
+    <t>iam_role_permission-50</t>
+  </si>
+  <si>
+    <t>iam_role_permission-51</t>
+  </si>
+  <si>
+    <t>iam_role_permission-52</t>
+  </si>
+  <si>
+    <t>iam_role_permission-53</t>
+  </si>
+  <si>
+    <t>iam_role_permission-54</t>
+  </si>
+  <si>
+    <t>iam_role_permission-55</t>
+  </si>
+  <si>
+    <t>iam_role_permission-56</t>
+  </si>
+  <si>
+    <t>iam_role_permission-57</t>
+  </si>
+  <si>
+    <t>iam_role_permission-58</t>
+  </si>
+  <si>
+    <t>iam_role_permission-59</t>
+  </si>
+  <si>
+    <t>iam_role_permission-60</t>
+  </si>
+  <si>
+    <t>iam_role_permission-61</t>
+  </si>
+  <si>
+    <t>iam_role_permission-62</t>
+  </si>
+  <si>
+    <t>iam_role_permission-63</t>
+  </si>
+  <si>
+    <t>iam_role_permission-64</t>
+  </si>
+  <si>
+    <t>iam_role_permission-65</t>
+  </si>
+  <si>
+    <t>iam_role_permission-66</t>
+  </si>
+  <si>
+    <t>iam_role_permission-67</t>
+  </si>
+  <si>
+    <t>iam_role_permission-68</t>
+  </si>
+  <si>
+    <t>iam_role_permission-69</t>
+  </si>
+  <si>
+    <t>iam_role_permission-70</t>
+  </si>
+  <si>
+    <t>iam_role_permission-71</t>
+  </si>
+  <si>
+    <t>iam_role_permission-72</t>
+  </si>
+  <si>
+    <t>iam_role_permission-73</t>
+  </si>
+  <si>
+    <t>iam_role_permission-74</t>
+  </si>
+  <si>
+    <t>iam_role_permission-75</t>
+  </si>
+  <si>
+    <t>iam_role_permission-76</t>
+  </si>
+  <si>
+    <t>iam_role_permission-77</t>
+  </si>
+  <si>
+    <t>iam_role_permission-78</t>
+  </si>
+  <si>
+    <t>iam_role_permission-79</t>
+  </si>
+  <si>
+    <t>iam_role_permission-80</t>
+  </si>
+  <si>
+    <t>iam_role_permission-81</t>
+  </si>
+  <si>
+    <t>iam_role_permission-82</t>
+  </si>
+  <si>
+    <t>iam_role_permission-83</t>
+  </si>
+  <si>
+    <t>iam_role_permission-84</t>
+  </si>
+  <si>
+    <t>iam_role_permission-85</t>
+  </si>
+  <si>
+    <t>iam_role_permission-86</t>
+  </si>
+  <si>
+    <t>iam_role_permission-87</t>
+  </si>
+  <si>
+    <t>iam_role_permission-88</t>
+  </si>
+  <si>
+    <t>iam_role_permission-89</t>
+  </si>
+  <si>
+    <t>iam_role_permission-90</t>
+  </si>
+  <si>
+    <t>iam_role_permission-91</t>
+  </si>
+  <si>
+    <t>iam_role_permission-92</t>
+  </si>
+  <si>
+    <t>iam_role_permission-93</t>
+  </si>
+  <si>
+    <t>iam_role_permission-94</t>
+  </si>
+  <si>
+    <t>iam_role_permission-95</t>
+  </si>
+  <si>
+    <t>iam_role_permission-96</t>
+  </si>
+  <si>
+    <t>iam_role_permission-97</t>
+  </si>
+  <si>
+    <t>iam_role_permission-98</t>
+  </si>
+  <si>
+    <t>iam_role_permission-99</t>
+  </si>
+  <si>
+    <t>iam_role_permission-100</t>
+  </si>
+  <si>
+    <t>iam_role_permission-101</t>
+  </si>
+  <si>
+    <t>iam_role_permission-102</t>
+  </si>
+  <si>
+    <t>iam_role_permission-103</t>
+  </si>
+  <si>
+    <t>iam_role_permission-104</t>
+  </si>
+  <si>
+    <t>iam_role_permission-105</t>
+  </si>
+  <si>
+    <t>iam_role_permission-106</t>
+  </si>
+  <si>
+    <t>iam_role_permission-107</t>
+  </si>
+  <si>
+    <t>iam_role_permission-108</t>
+  </si>
+  <si>
+    <t>iam_role_permission-109</t>
+  </si>
+  <si>
+    <t>iam_role_permission-110</t>
+  </si>
+  <si>
+    <t>iam_role_permission-111</t>
+  </si>
+  <si>
+    <t>iam_role_permission-112</t>
+  </si>
+  <si>
+    <t>iam_role_permission-113</t>
+  </si>
+  <si>
+    <t>iam_role_permission-114</t>
+  </si>
+  <si>
+    <t>iam_role_permission-115</t>
+  </si>
+  <si>
+    <t>iam_role_permission-116</t>
+  </si>
+  <si>
+    <t>iam_role_permission-117</t>
+  </si>
+  <si>
+    <t>iam_role_permission-118</t>
+  </si>
+  <si>
+    <t>iam_role_permission-119</t>
+  </si>
+  <si>
+    <t>iam_role_permission-120</t>
+  </si>
+  <si>
+    <t>iam_role_permission-121</t>
+  </si>
+  <si>
+    <t>iam_role_permission-122</t>
+  </si>
+  <si>
+    <t>iam_role_permission-123</t>
+  </si>
+  <si>
+    <t>iam_role_permission-124</t>
+  </si>
+  <si>
+    <t>iam_role_permission-125</t>
+  </si>
+  <si>
+    <t>iam_role_permission-126</t>
+  </si>
+  <si>
+    <t>iam_role_permission-127</t>
+  </si>
+  <si>
+    <t>iam_role_permission-128</t>
+  </si>
+  <si>
+    <t>iam_role_permission-129</t>
+  </si>
+  <si>
+    <t>iam_role_permission-130</t>
+  </si>
+  <si>
+    <t>iam_role_permission-131</t>
+  </si>
+  <si>
+    <t>iam_role_permission-132</t>
+  </si>
+  <si>
+    <t>iam_role_permission-133</t>
+  </si>
+  <si>
+    <t>iam_role_permission-134</t>
+  </si>
+  <si>
+    <t>iam_role_permission-135</t>
+  </si>
+  <si>
+    <t>iam_role_permission-136</t>
+  </si>
+  <si>
+    <t>iam_role_permission-137</t>
+  </si>
+  <si>
+    <t>iam_role_permission-138</t>
+  </si>
+  <si>
+    <t>iam_role_permission-139</t>
+  </si>
+  <si>
+    <t>iam_role_permission-140</t>
+  </si>
+  <si>
+    <t>iam_role_permission-141</t>
+  </si>
+  <si>
+    <t>iam_role_permission-142</t>
+  </si>
+  <si>
+    <t>iam_role_permission-143</t>
+  </si>
+  <si>
+    <t>iam_role_permission-144</t>
+  </si>
+  <si>
+    <t>iam_role_permission-145</t>
+  </si>
+  <si>
+    <t>iam_role_permission-146</t>
+  </si>
+  <si>
+    <t>iam_role_permission-147</t>
+  </si>
+  <si>
+    <t>iam_role_permission-148</t>
+  </si>
+  <si>
+    <t>iam_role_permission-149</t>
+  </si>
+  <si>
+    <t>iam_role_permission-150</t>
+  </si>
+  <si>
+    <t>iam_role_permission-151</t>
+  </si>
+  <si>
+    <t>iam_role_permission-152</t>
+  </si>
+  <si>
+    <t>iam_role_permission-153</t>
+  </si>
+  <si>
+    <t>iam_role_permission-154</t>
+  </si>
+  <si>
+    <t>iam_role_permission-155</t>
+  </si>
+  <si>
+    <t>iam_role_permission-156</t>
+  </si>
+  <si>
+    <t>iam_role_permission-157</t>
+  </si>
+  <si>
+    <t>iam_role_permission-158</t>
   </si>
   <si>
     <t>标签表</t>
@@ -8580,7 +9681,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8634,6 +9735,1403 @@
         <v>423</v>
       </c>
     </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F17">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="G17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F19">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>448</v>
+      </c>
+      <c r="F20">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>454</v>
+      </c>
+      <c r="F23">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F29">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>465</v>
+      </c>
+      <c r="F30">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F31">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>468</v>
+      </c>
+      <c r="F32">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>469</v>
+      </c>
+      <c r="F33">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>471</v>
+      </c>
+      <c r="F34">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>475</v>
+      </c>
+      <c r="F36">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>476</v>
+      </c>
+      <c r="F37">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G37" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>477</v>
+      </c>
+      <c r="F38">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>478</v>
+      </c>
+      <c r="F39">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>481</v>
+      </c>
+      <c r="F41">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G41" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>483</v>
+      </c>
+      <c r="F42">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G42" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>485</v>
+      </c>
+      <c r="F43">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F44">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G44" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>489</v>
+      </c>
+      <c r="F45">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>491</v>
+      </c>
+      <c r="F46">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G46" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>493</v>
+      </c>
+      <c r="F47">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G47" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>495</v>
+      </c>
+      <c r="F48">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G48" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>497</v>
+      </c>
+      <c r="F49">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>499</v>
+      </c>
+      <c r="F50">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F51">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>503</v>
+      </c>
+      <c r="F52">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="G52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>504</v>
+      </c>
+      <c r="F53">
+        <f>HR组织架构菜单!$E$37</f>
+      </c>
+      <c r="G53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>505</v>
+      </c>
+      <c r="F54">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G54" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>506</v>
+      </c>
+      <c r="F55">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>507</v>
+      </c>
+      <c r="F56">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>508</v>
+      </c>
+      <c r="F57">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>509</v>
+      </c>
+      <c r="F58">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>510</v>
+      </c>
+      <c r="F59">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>511</v>
+      </c>
+      <c r="F60">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>512</v>
+      </c>
+      <c r="F61">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G61" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>513</v>
+      </c>
+      <c r="F62">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="G63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>515</v>
+      </c>
+      <c r="F64">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>516</v>
+      </c>
+      <c r="F65">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>518</v>
+      </c>
+      <c r="F66">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>520</v>
+      </c>
+      <c r="F67">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>522</v>
+      </c>
+      <c r="F68">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>523</v>
+      </c>
+      <c r="F69">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>524</v>
+      </c>
+      <c r="F70">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>526</v>
+      </c>
+      <c r="F71">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>527</v>
+      </c>
+      <c r="F72">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>529</v>
+      </c>
+      <c r="F73">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G73" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>531</v>
+      </c>
+      <c r="F74">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G74" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>533</v>
+      </c>
+      <c r="F75">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>534</v>
+      </c>
+      <c r="F76">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G76" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>536</v>
+      </c>
+      <c r="F77">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G77" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>538</v>
+      </c>
+      <c r="F78">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G78" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>540</v>
+      </c>
+      <c r="F79">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
+        <v>541</v>
+      </c>
+      <c r="F80">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>542</v>
+      </c>
+      <c r="F81">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G81" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>543</v>
+      </c>
+      <c r="F82">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G82" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
+        <v>544</v>
+      </c>
+      <c r="F83">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
+        <v>546</v>
+      </c>
+      <c r="F84">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G84" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
+        <v>547</v>
+      </c>
+      <c r="F85">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
+        <v>549</v>
+      </c>
+      <c r="F86">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G86" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
+        <v>551</v>
+      </c>
+      <c r="F87">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G87" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
+        <v>553</v>
+      </c>
+      <c r="F88">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G88" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
+        <v>555</v>
+      </c>
+      <c r="F89">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="G89" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
+        <v>556</v>
+      </c>
+      <c r="F90">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="G90" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
+        <v>558</v>
+      </c>
+      <c r="F91">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="G91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>560</v>
+      </c>
+      <c r="F92">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="G92" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
+        <v>562</v>
+      </c>
+      <c r="F93">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="G93" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>564</v>
+      </c>
+      <c r="F94">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G94" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
+        <v>565</v>
+      </c>
+      <c r="F95">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G95" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>567</v>
+      </c>
+      <c r="F96">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G96" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>569</v>
+      </c>
+      <c r="F97">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G97" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>570</v>
+      </c>
+      <c r="F98">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G98" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>571</v>
+      </c>
+      <c r="F99">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G99" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>573</v>
+      </c>
+      <c r="F100">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G100" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>574</v>
+      </c>
+      <c r="F101">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G101" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>576</v>
+      </c>
+      <c r="F102">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G102" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>578</v>
+      </c>
+      <c r="F103">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G103" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>579</v>
+      </c>
+      <c r="F104">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G104" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>580</v>
+      </c>
+      <c r="F105">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G105" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>582</v>
+      </c>
+      <c r="F106">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G106" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>584</v>
+      </c>
+      <c r="F107">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G107" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>585</v>
+      </c>
+      <c r="F108">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G108" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>586</v>
+      </c>
+      <c r="F109">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G109" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>588</v>
+      </c>
+      <c r="F110">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G110" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>590</v>
+      </c>
+      <c r="F111">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G111" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>592</v>
+      </c>
+      <c r="F112">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G112" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>593</v>
+      </c>
+      <c r="F113">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G113" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>595</v>
+      </c>
+      <c r="F114">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G114" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>597</v>
+      </c>
+      <c r="F115">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G115" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>599</v>
+      </c>
+      <c r="F116">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G116" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>601</v>
+      </c>
+      <c r="F117">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G117" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>603</v>
+      </c>
+      <c r="F118">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G118" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>605</v>
+      </c>
+      <c r="F119">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G119" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>607</v>
+      </c>
+      <c r="F120">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G120" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>609</v>
+      </c>
+      <c r="F121">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G121" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>611</v>
+      </c>
+      <c r="F122">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G122" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>613</v>
+      </c>
+      <c r="F123">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G123" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>615</v>
+      </c>
+      <c r="F124">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G124" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>617</v>
+      </c>
+      <c r="F125">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G125" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="s">
+        <v>619</v>
+      </c>
+      <c r="F126">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G126" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="s">
+        <v>621</v>
+      </c>
+      <c r="F127">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="G127" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="s">
+        <v>623</v>
+      </c>
+      <c r="F128">
+        <f>HR组织架构菜单!$E$76</f>
+      </c>
+      <c r="G128" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="s">
+        <v>624</v>
+      </c>
+      <c r="F129">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G129" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="s">
+        <v>625</v>
+      </c>
+      <c r="F130">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G130" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="s">
+        <v>626</v>
+      </c>
+      <c r="F131">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G131" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="s">
+        <v>627</v>
+      </c>
+      <c r="F132">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G132" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="s">
+        <v>628</v>
+      </c>
+      <c r="F133">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G133" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="s">
+        <v>629</v>
+      </c>
+      <c r="F134">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="G134" t="s">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -8641,7 +11139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8680,10 +11178,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>631</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>425</v>
+        <v>632</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>54</v>
@@ -8698,75 +11196,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>426</v>
+        <v>633</v>
       </c>
       <c r="J7" t="s">
-        <v>427</v>
+        <v>634</v>
       </c>
       <c r="K7" t="s" s="73">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>428</v>
+        <v>635</v>
       </c>
       <c r="M7" t="s" s="74">
-        <v>429</v>
+        <v>636</v>
       </c>
       <c r="N7" t="s" s="75">
-        <v>430</v>
+        <v>637</v>
       </c>
       <c r="O7" t="s">
-        <v>431</v>
+        <v>638</v>
       </c>
       <c r="P7" t="s">
-        <v>432</v>
+        <v>639</v>
       </c>
       <c r="Q7" t="s">
-        <v>433</v>
+        <v>640</v>
       </c>
       <c r="R7" t="s">
-        <v>434</v>
+        <v>641</v>
       </c>
       <c r="S7" t="s">
-        <v>435</v>
+        <v>642</v>
       </c>
       <c r="T7" t="s">
-        <v>436</v>
+        <v>643</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>437</v>
+        <v>644</v>
       </c>
       <c r="W7" t="s" s="76">
-        <v>438</v>
+        <v>645</v>
       </c>
       <c r="X7" t="s">
-        <v>439</v>
+        <v>646</v>
       </c>
       <c r="Y7" t="s">
-        <v>440</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>441</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>649</v>
       </c>
       <c r="G8" t="s">
-        <v>443</v>
+        <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>652</v>
       </c>
       <c r="J8" t="s">
-        <v>446</v>
+        <v>653</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -8799,45 +11297,3086 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="V8" t="s">
-        <v>444</v>
+        <v>651</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>654</v>
+      </c>
+      <c r="F9" t="s">
+        <v>655</v>
+      </c>
+      <c r="G9" t="s">
+        <v>656</v>
+      </c>
+      <c r="H9" t="s">
+        <v>657</v>
+      </c>
+      <c r="I9" t="s">
+        <v>658</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" t="s">
+        <v>657</v>
+      </c>
+      <c r="V9" t="s">
+        <v>657</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F10" t="s">
+        <v>660</v>
+      </c>
+      <c r="G10" t="s">
+        <v>661</v>
+      </c>
+      <c r="H10" t="s">
+        <v>662</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" t="s">
+        <v>663</v>
+      </c>
+      <c r="V10" t="s">
+        <v>662</v>
+      </c>
+      <c r="W10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>447</v>
-      </c>
-      <c r="D10" t="s" s="77">
-        <v>448</v>
-      </c>
-      <c r="E10" t="s" s="78">
+      <c r="C12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D12" t="s" s="77">
+        <v>666</v>
+      </c>
+      <c r="E12" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F10" t="s" s="79">
-        <v>449</v>
-      </c>
-      <c r="G10" t="s" s="80">
-        <v>450</v>
-      </c>
-      <c r="H10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I10" t="s">
-        <v>452</v>
-      </c>
-      <c r="J10" t="s" s="81">
-        <v>453</v>
+      <c r="F12" t="s" s="79">
+        <v>667</v>
+      </c>
+      <c r="G12" t="s" s="80">
+        <v>668</v>
+      </c>
+      <c r="H12" t="s">
+        <v>669</v>
+      </c>
+      <c r="I12" t="s">
+        <v>670</v>
+      </c>
+      <c r="J12" t="s" s="81">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>672</v>
+      </c>
+      <c r="F13">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G13">
+        <f>HR组织架构菜单!$E$10</f>
+      </c>
+      <c r="H13" t="s">
+        <v>673</v>
+      </c>
+      <c r="I13" t="s">
+        <v>674</v>
+      </c>
+      <c r="J13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>676</v>
+      </c>
+      <c r="F14">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G14">
+        <f>HR组织架构菜单!$E$10</f>
+      </c>
+      <c r="H14" t="s">
+        <v>673</v>
+      </c>
+      <c r="I14" t="s">
+        <v>674</v>
+      </c>
+      <c r="J14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>677</v>
+      </c>
+      <c r="F15">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G15">
+        <f>HR组织架构菜单!$E$11</f>
+      </c>
+      <c r="H15" t="s">
+        <v>673</v>
+      </c>
+      <c r="I15" t="s">
+        <v>674</v>
+      </c>
+      <c r="J15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>678</v>
+      </c>
+      <c r="F16">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G16">
+        <f>HR组织架构菜单!$E$11</f>
+      </c>
+      <c r="H16" t="s">
+        <v>673</v>
+      </c>
+      <c r="I16" t="s">
+        <v>674</v>
+      </c>
+      <c r="J16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>679</v>
+      </c>
+      <c r="F17">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G17">
+        <f>HR组织架构菜单!$E$12</f>
+      </c>
+      <c r="H17" t="s">
+        <v>673</v>
+      </c>
+      <c r="I17" t="s">
+        <v>674</v>
+      </c>
+      <c r="J17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>680</v>
+      </c>
+      <c r="F18">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>HR组织架构菜单!$E$12</f>
+      </c>
+      <c r="H18" t="s">
+        <v>673</v>
+      </c>
+      <c r="I18" t="s">
+        <v>674</v>
+      </c>
+      <c r="J18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>681</v>
+      </c>
+      <c r="F19">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G19">
+        <f>HR组织架构菜单!$E$13</f>
+      </c>
+      <c r="H19" t="s">
+        <v>673</v>
+      </c>
+      <c r="I19" t="s">
+        <v>674</v>
+      </c>
+      <c r="J19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>682</v>
+      </c>
+      <c r="F20">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>HR组织架构菜单!$E$13</f>
+      </c>
+      <c r="H20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I20" t="s">
+        <v>674</v>
+      </c>
+      <c r="J20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>683</v>
+      </c>
+      <c r="F21">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G21">
+        <f>HR组织架构菜单!$E$14</f>
+      </c>
+      <c r="H21" t="s">
+        <v>673</v>
+      </c>
+      <c r="I21" t="s">
+        <v>674</v>
+      </c>
+      <c r="J21" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>684</v>
+      </c>
+      <c r="F22">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>HR组织架构菜单!$E$14</f>
+      </c>
+      <c r="H22" t="s">
+        <v>673</v>
+      </c>
+      <c r="I22" t="s">
+        <v>674</v>
+      </c>
+      <c r="J22" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>685</v>
+      </c>
+      <c r="F23">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G23">
+        <f>HR组织架构菜单!$E$15</f>
+      </c>
+      <c r="H23" t="s">
+        <v>673</v>
+      </c>
+      <c r="I23" t="s">
+        <v>674</v>
+      </c>
+      <c r="J23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>686</v>
+      </c>
+      <c r="F24">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>HR组织架构菜单!$E$15</f>
+      </c>
+      <c r="H24" t="s">
+        <v>673</v>
+      </c>
+      <c r="I24" t="s">
+        <v>674</v>
+      </c>
+      <c r="J24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>687</v>
+      </c>
+      <c r="F25">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G25">
+        <f>HR组织架构菜单!$E$16</f>
+      </c>
+      <c r="H25" t="s">
+        <v>673</v>
+      </c>
+      <c r="I25" t="s">
+        <v>674</v>
+      </c>
+      <c r="J25" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>688</v>
+      </c>
+      <c r="F26">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>HR组织架构菜单!$E$16</f>
+      </c>
+      <c r="H26" t="s">
+        <v>673</v>
+      </c>
+      <c r="I26" t="s">
+        <v>674</v>
+      </c>
+      <c r="J26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>689</v>
+      </c>
+      <c r="F27">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G27">
+        <f>HR组织架构菜单!$E$17</f>
+      </c>
+      <c r="H27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I27" t="s">
+        <v>674</v>
+      </c>
+      <c r="J27" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>690</v>
+      </c>
+      <c r="F28">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G28">
+        <f>HR组织架构菜单!$E$17</f>
+      </c>
+      <c r="H28" t="s">
+        <v>673</v>
+      </c>
+      <c r="I28" t="s">
+        <v>674</v>
+      </c>
+      <c r="J28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>691</v>
+      </c>
+      <c r="F29">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G29">
+        <f>HR组织架构菜单!$E$18</f>
+      </c>
+      <c r="H29" t="s">
+        <v>673</v>
+      </c>
+      <c r="I29" t="s">
+        <v>674</v>
+      </c>
+      <c r="J29" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>692</v>
+      </c>
+      <c r="F30">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G30">
+        <f>HR组织架构菜单!$E$18</f>
+      </c>
+      <c r="H30" t="s">
+        <v>673</v>
+      </c>
+      <c r="I30" t="s">
+        <v>674</v>
+      </c>
+      <c r="J30" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>693</v>
+      </c>
+      <c r="F31">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G31">
+        <f>HR组织架构菜单!$E$19</f>
+      </c>
+      <c r="H31" t="s">
+        <v>673</v>
+      </c>
+      <c r="I31" t="s">
+        <v>674</v>
+      </c>
+      <c r="J31" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>694</v>
+      </c>
+      <c r="F32">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G32">
+        <f>HR组织架构菜单!$E$19</f>
+      </c>
+      <c r="H32" t="s">
+        <v>673</v>
+      </c>
+      <c r="I32" t="s">
+        <v>674</v>
+      </c>
+      <c r="J32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>695</v>
+      </c>
+      <c r="F33">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G33">
+        <f>HR组织架构菜单!$E$20</f>
+      </c>
+      <c r="H33" t="s">
+        <v>673</v>
+      </c>
+      <c r="I33" t="s">
+        <v>674</v>
+      </c>
+      <c r="J33" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>696</v>
+      </c>
+      <c r="F34">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G34">
+        <f>HR组织架构菜单!$E$20</f>
+      </c>
+      <c r="H34" t="s">
+        <v>673</v>
+      </c>
+      <c r="I34" t="s">
+        <v>674</v>
+      </c>
+      <c r="J34" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>697</v>
+      </c>
+      <c r="F35">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G35">
+        <f>HR组织架构菜单!$E$21</f>
+      </c>
+      <c r="H35" t="s">
+        <v>673</v>
+      </c>
+      <c r="I35" t="s">
+        <v>674</v>
+      </c>
+      <c r="J35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>698</v>
+      </c>
+      <c r="F36">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G36">
+        <f>HR组织架构菜单!$E$21</f>
+      </c>
+      <c r="H36" t="s">
+        <v>673</v>
+      </c>
+      <c r="I36" t="s">
+        <v>674</v>
+      </c>
+      <c r="J36" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>699</v>
+      </c>
+      <c r="F37">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G37">
+        <f>HR组织架构菜单!$E$22</f>
+      </c>
+      <c r="H37" t="s">
+        <v>673</v>
+      </c>
+      <c r="I37" t="s">
+        <v>674</v>
+      </c>
+      <c r="J37" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>700</v>
+      </c>
+      <c r="F38">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G38">
+        <f>HR组织架构菜单!$E$22</f>
+      </c>
+      <c r="H38" t="s">
+        <v>673</v>
+      </c>
+      <c r="I38" t="s">
+        <v>674</v>
+      </c>
+      <c r="J38" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>701</v>
+      </c>
+      <c r="F39">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G39">
+        <f>HR组织架构菜单!$E$23</f>
+      </c>
+      <c r="H39" t="s">
+        <v>673</v>
+      </c>
+      <c r="I39" t="s">
+        <v>674</v>
+      </c>
+      <c r="J39" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>702</v>
+      </c>
+      <c r="F40">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G40">
+        <f>HR组织架构菜单!$E$23</f>
+      </c>
+      <c r="H40" t="s">
+        <v>673</v>
+      </c>
+      <c r="I40" t="s">
+        <v>674</v>
+      </c>
+      <c r="J40" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>703</v>
+      </c>
+      <c r="F41">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G41">
+        <f>HR组织架构菜单!$E$24</f>
+      </c>
+      <c r="H41" t="s">
+        <v>673</v>
+      </c>
+      <c r="I41" t="s">
+        <v>674</v>
+      </c>
+      <c r="J41" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>704</v>
+      </c>
+      <c r="F42">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G42">
+        <f>HR组织架构菜单!$E$24</f>
+      </c>
+      <c r="H42" t="s">
+        <v>673</v>
+      </c>
+      <c r="I42" t="s">
+        <v>674</v>
+      </c>
+      <c r="J42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>705</v>
+      </c>
+      <c r="F43">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G43">
+        <f>HR组织架构菜单!$E$25</f>
+      </c>
+      <c r="H43" t="s">
+        <v>673</v>
+      </c>
+      <c r="I43" t="s">
+        <v>674</v>
+      </c>
+      <c r="J43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>706</v>
+      </c>
+      <c r="F44">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G44">
+        <f>HR组织架构菜单!$E$25</f>
+      </c>
+      <c r="H44" t="s">
+        <v>673</v>
+      </c>
+      <c r="I44" t="s">
+        <v>674</v>
+      </c>
+      <c r="J44" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>707</v>
+      </c>
+      <c r="F45">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G45">
+        <f>HR组织架构菜单!$E$26</f>
+      </c>
+      <c r="H45" t="s">
+        <v>673</v>
+      </c>
+      <c r="I45" t="s">
+        <v>674</v>
+      </c>
+      <c r="J45" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>708</v>
+      </c>
+      <c r="F46">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G46">
+        <f>HR组织架构菜单!$E$26</f>
+      </c>
+      <c r="H46" t="s">
+        <v>673</v>
+      </c>
+      <c r="I46" t="s">
+        <v>674</v>
+      </c>
+      <c r="J46" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>709</v>
+      </c>
+      <c r="F47">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G47">
+        <f>HR组织架构菜单!$E$27</f>
+      </c>
+      <c r="H47" t="s">
+        <v>673</v>
+      </c>
+      <c r="I47" t="s">
+        <v>674</v>
+      </c>
+      <c r="J47" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>710</v>
+      </c>
+      <c r="F48">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G48">
+        <f>HR组织架构菜单!$E$27</f>
+      </c>
+      <c r="H48" t="s">
+        <v>673</v>
+      </c>
+      <c r="I48" t="s">
+        <v>674</v>
+      </c>
+      <c r="J48" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>711</v>
+      </c>
+      <c r="F49">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G49">
+        <f>HR组织架构菜单!$E$28</f>
+      </c>
+      <c r="H49" t="s">
+        <v>673</v>
+      </c>
+      <c r="I49" t="s">
+        <v>674</v>
+      </c>
+      <c r="J49" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>712</v>
+      </c>
+      <c r="F50">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G50">
+        <f>HR组织架构菜单!$E$28</f>
+      </c>
+      <c r="H50" t="s">
+        <v>673</v>
+      </c>
+      <c r="I50" t="s">
+        <v>674</v>
+      </c>
+      <c r="J50" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>713</v>
+      </c>
+      <c r="F51">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G51">
+        <f>HR组织架构菜单!$E$29</f>
+      </c>
+      <c r="H51" t="s">
+        <v>673</v>
+      </c>
+      <c r="I51" t="s">
+        <v>674</v>
+      </c>
+      <c r="J51" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>714</v>
+      </c>
+      <c r="F52">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G52">
+        <f>HR组织架构菜单!$E$29</f>
+      </c>
+      <c r="H52" t="s">
+        <v>673</v>
+      </c>
+      <c r="I52" t="s">
+        <v>674</v>
+      </c>
+      <c r="J52" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>715</v>
+      </c>
+      <c r="F53">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G53">
+        <f>HR组织架构菜单!$E$30</f>
+      </c>
+      <c r="H53" t="s">
+        <v>673</v>
+      </c>
+      <c r="I53" t="s">
+        <v>674</v>
+      </c>
+      <c r="J53" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>716</v>
+      </c>
+      <c r="F54">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G54">
+        <f>HR组织架构菜单!$E$30</f>
+      </c>
+      <c r="H54" t="s">
+        <v>673</v>
+      </c>
+      <c r="I54" t="s">
+        <v>674</v>
+      </c>
+      <c r="J54" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>717</v>
+      </c>
+      <c r="F55">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G55">
+        <f>HR组织架构菜单!$E$31</f>
+      </c>
+      <c r="H55" t="s">
+        <v>673</v>
+      </c>
+      <c r="I55" t="s">
+        <v>674</v>
+      </c>
+      <c r="J55" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>718</v>
+      </c>
+      <c r="F56">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G56">
+        <f>HR组织架构菜单!$E$31</f>
+      </c>
+      <c r="H56" t="s">
+        <v>673</v>
+      </c>
+      <c r="I56" t="s">
+        <v>674</v>
+      </c>
+      <c r="J56" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>719</v>
+      </c>
+      <c r="F57">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G57">
+        <f>HR组织架构菜单!$E$32</f>
+      </c>
+      <c r="H57" t="s">
+        <v>673</v>
+      </c>
+      <c r="I57" t="s">
+        <v>674</v>
+      </c>
+      <c r="J57" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>720</v>
+      </c>
+      <c r="F58">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G58">
+        <f>HR组织架构菜单!$E$32</f>
+      </c>
+      <c r="H58" t="s">
+        <v>673</v>
+      </c>
+      <c r="I58" t="s">
+        <v>674</v>
+      </c>
+      <c r="J58" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>721</v>
+      </c>
+      <c r="F59">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G59">
+        <f>HR组织架构菜单!$E$33</f>
+      </c>
+      <c r="H59" t="s">
+        <v>673</v>
+      </c>
+      <c r="I59" t="s">
+        <v>674</v>
+      </c>
+      <c r="J59" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>722</v>
+      </c>
+      <c r="F60">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G60">
+        <f>HR组织架构菜单!$E$33</f>
+      </c>
+      <c r="H60" t="s">
+        <v>673</v>
+      </c>
+      <c r="I60" t="s">
+        <v>674</v>
+      </c>
+      <c r="J60" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>723</v>
+      </c>
+      <c r="F61">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G61">
+        <f>HR组织架构菜单!$E$34</f>
+      </c>
+      <c r="H61" t="s">
+        <v>673</v>
+      </c>
+      <c r="I61" t="s">
+        <v>674</v>
+      </c>
+      <c r="J61" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>724</v>
+      </c>
+      <c r="F62">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G62">
+        <f>HR组织架构菜单!$E$34</f>
+      </c>
+      <c r="H62" t="s">
+        <v>673</v>
+      </c>
+      <c r="I62" t="s">
+        <v>674</v>
+      </c>
+      <c r="J62" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>725</v>
+      </c>
+      <c r="F63">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G63">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="H63" t="s">
+        <v>673</v>
+      </c>
+      <c r="I63" t="s">
+        <v>674</v>
+      </c>
+      <c r="J63" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>726</v>
+      </c>
+      <c r="F64">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G64">
+        <f>HR组织架构菜单!$E$35</f>
+      </c>
+      <c r="H64" t="s">
+        <v>673</v>
+      </c>
+      <c r="I64" t="s">
+        <v>674</v>
+      </c>
+      <c r="J64" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>727</v>
+      </c>
+      <c r="F65">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G65">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="H65" t="s">
+        <v>673</v>
+      </c>
+      <c r="I65" t="s">
+        <v>674</v>
+      </c>
+      <c r="J65" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>728</v>
+      </c>
+      <c r="F66">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G66">
+        <f>HR组织架构菜单!$E$36</f>
+      </c>
+      <c r="H66" t="s">
+        <v>673</v>
+      </c>
+      <c r="I66" t="s">
+        <v>674</v>
+      </c>
+      <c r="J66" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>729</v>
+      </c>
+      <c r="F67">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G67">
+        <f>HR组织架构菜单!$E$37</f>
+      </c>
+      <c r="H67" t="s">
+        <v>673</v>
+      </c>
+      <c r="I67" t="s">
+        <v>674</v>
+      </c>
+      <c r="J67" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>730</v>
+      </c>
+      <c r="F68">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G68">
+        <f>HR组织架构菜单!$E$37</f>
+      </c>
+      <c r="H68" t="s">
+        <v>673</v>
+      </c>
+      <c r="I68" t="s">
+        <v>674</v>
+      </c>
+      <c r="J68" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>731</v>
+      </c>
+      <c r="F69">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G69">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="H69" t="s">
+        <v>673</v>
+      </c>
+      <c r="I69" t="s">
+        <v>674</v>
+      </c>
+      <c r="J69" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>732</v>
+      </c>
+      <c r="F70">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G70">
+        <f>HR组织架构菜单!$E$38</f>
+      </c>
+      <c r="H70" t="s">
+        <v>673</v>
+      </c>
+      <c r="I70" t="s">
+        <v>674</v>
+      </c>
+      <c r="J70" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>733</v>
+      </c>
+      <c r="F71">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G71">
+        <f>HR组织架构菜单!$E$40</f>
+      </c>
+      <c r="H71" t="s">
+        <v>673</v>
+      </c>
+      <c r="I71" t="s">
+        <v>674</v>
+      </c>
+      <c r="J71" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>734</v>
+      </c>
+      <c r="F72">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G72">
+        <f>HR组织架构菜单!$E$40</f>
+      </c>
+      <c r="H72" t="s">
+        <v>673</v>
+      </c>
+      <c r="I72" t="s">
+        <v>674</v>
+      </c>
+      <c r="J72" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>735</v>
+      </c>
+      <c r="F73">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G73">
+        <f>HR组织架构菜单!$E$41</f>
+      </c>
+      <c r="H73" t="s">
+        <v>673</v>
+      </c>
+      <c r="I73" t="s">
+        <v>674</v>
+      </c>
+      <c r="J73" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>736</v>
+      </c>
+      <c r="F74">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G74">
+        <f>HR组织架构菜单!$E$41</f>
+      </c>
+      <c r="H74" t="s">
+        <v>673</v>
+      </c>
+      <c r="I74" t="s">
+        <v>674</v>
+      </c>
+      <c r="J74" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>737</v>
+      </c>
+      <c r="F75">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G75">
+        <f>HR组织架构菜单!$E$42</f>
+      </c>
+      <c r="H75" t="s">
+        <v>673</v>
+      </c>
+      <c r="I75" t="s">
+        <v>674</v>
+      </c>
+      <c r="J75" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>738</v>
+      </c>
+      <c r="F76">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G76">
+        <f>HR组织架构菜单!$E$42</f>
+      </c>
+      <c r="H76" t="s">
+        <v>673</v>
+      </c>
+      <c r="I76" t="s">
+        <v>674</v>
+      </c>
+      <c r="J76" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>739</v>
+      </c>
+      <c r="F77">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G77">
+        <f>HR组织架构菜单!$E$43</f>
+      </c>
+      <c r="H77" t="s">
+        <v>673</v>
+      </c>
+      <c r="I77" t="s">
+        <v>674</v>
+      </c>
+      <c r="J77" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>740</v>
+      </c>
+      <c r="F78">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G78">
+        <f>HR组织架构菜单!$E$43</f>
+      </c>
+      <c r="H78" t="s">
+        <v>673</v>
+      </c>
+      <c r="I78" t="s">
+        <v>674</v>
+      </c>
+      <c r="J78" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>741</v>
+      </c>
+      <c r="F79">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G79">
+        <f>HR组织架构菜单!$E$44</f>
+      </c>
+      <c r="H79" t="s">
+        <v>673</v>
+      </c>
+      <c r="I79" t="s">
+        <v>674</v>
+      </c>
+      <c r="J79" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
+        <v>742</v>
+      </c>
+      <c r="F80">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G80">
+        <f>HR组织架构菜单!$E$44</f>
+      </c>
+      <c r="H80" t="s">
+        <v>673</v>
+      </c>
+      <c r="I80" t="s">
+        <v>674</v>
+      </c>
+      <c r="J80" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>743</v>
+      </c>
+      <c r="F81">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G81">
+        <f>HR组织架构菜单!$E$45</f>
+      </c>
+      <c r="H81" t="s">
+        <v>673</v>
+      </c>
+      <c r="I81" t="s">
+        <v>674</v>
+      </c>
+      <c r="J81" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>744</v>
+      </c>
+      <c r="F82">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G82">
+        <f>HR组织架构菜单!$E$45</f>
+      </c>
+      <c r="H82" t="s">
+        <v>673</v>
+      </c>
+      <c r="I82" t="s">
+        <v>674</v>
+      </c>
+      <c r="J82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
+        <v>745</v>
+      </c>
+      <c r="F83">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G83">
+        <f>HR组织架构菜单!$E$46</f>
+      </c>
+      <c r="H83" t="s">
+        <v>673</v>
+      </c>
+      <c r="I83" t="s">
+        <v>674</v>
+      </c>
+      <c r="J83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
+        <v>746</v>
+      </c>
+      <c r="F84">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G84">
+        <f>HR组织架构菜单!$E$46</f>
+      </c>
+      <c r="H84" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" t="s">
+        <v>674</v>
+      </c>
+      <c r="J84" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
+        <v>747</v>
+      </c>
+      <c r="F85">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G85">
+        <f>HR组织架构菜单!$E$47</f>
+      </c>
+      <c r="H85" t="s">
+        <v>673</v>
+      </c>
+      <c r="I85" t="s">
+        <v>674</v>
+      </c>
+      <c r="J85" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
+        <v>748</v>
+      </c>
+      <c r="F86">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G86">
+        <f>HR组织架构菜单!$E$47</f>
+      </c>
+      <c r="H86" t="s">
+        <v>673</v>
+      </c>
+      <c r="I86" t="s">
+        <v>674</v>
+      </c>
+      <c r="J86" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
+        <v>749</v>
+      </c>
+      <c r="F87">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G87">
+        <f>HR组织架构菜单!$E$48</f>
+      </c>
+      <c r="H87" t="s">
+        <v>673</v>
+      </c>
+      <c r="I87" t="s">
+        <v>674</v>
+      </c>
+      <c r="J87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
+        <v>750</v>
+      </c>
+      <c r="F88">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G88">
+        <f>HR组织架构菜单!$E$48</f>
+      </c>
+      <c r="H88" t="s">
+        <v>673</v>
+      </c>
+      <c r="I88" t="s">
+        <v>674</v>
+      </c>
+      <c r="J88" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
+        <v>751</v>
+      </c>
+      <c r="F89">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G89">
+        <f>HR组织架构菜单!$E$49</f>
+      </c>
+      <c r="H89" t="s">
+        <v>673</v>
+      </c>
+      <c r="I89" t="s">
+        <v>674</v>
+      </c>
+      <c r="J89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
+        <v>752</v>
+      </c>
+      <c r="F90">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G90">
+        <f>HR组织架构菜单!$E$49</f>
+      </c>
+      <c r="H90" t="s">
+        <v>673</v>
+      </c>
+      <c r="I90" t="s">
+        <v>674</v>
+      </c>
+      <c r="J90" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
+        <v>753</v>
+      </c>
+      <c r="F91">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G91">
+        <f>HR组织架构菜单!$E$50</f>
+      </c>
+      <c r="H91" t="s">
+        <v>673</v>
+      </c>
+      <c r="I91" t="s">
+        <v>674</v>
+      </c>
+      <c r="J91" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>754</v>
+      </c>
+      <c r="F92">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G92">
+        <f>HR组织架构菜单!$E$50</f>
+      </c>
+      <c r="H92" t="s">
+        <v>673</v>
+      </c>
+      <c r="I92" t="s">
+        <v>674</v>
+      </c>
+      <c r="J92" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
+        <v>755</v>
+      </c>
+      <c r="F93">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G93">
+        <f>HR组织架构菜单!$E$51</f>
+      </c>
+      <c r="H93" t="s">
+        <v>673</v>
+      </c>
+      <c r="I93" t="s">
+        <v>674</v>
+      </c>
+      <c r="J93" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>756</v>
+      </c>
+      <c r="F94">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G94">
+        <f>HR组织架构菜单!$E$51</f>
+      </c>
+      <c r="H94" t="s">
+        <v>673</v>
+      </c>
+      <c r="I94" t="s">
+        <v>674</v>
+      </c>
+      <c r="J94" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
+        <v>757</v>
+      </c>
+      <c r="F95">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G95">
+        <f>HR组织架构菜单!$E$52</f>
+      </c>
+      <c r="H95" t="s">
+        <v>673</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>758</v>
+      </c>
+      <c r="F96">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G96">
+        <f>HR组织架构菜单!$E$52</f>
+      </c>
+      <c r="H96" t="s">
+        <v>673</v>
+      </c>
+      <c r="I96" t="s">
+        <v>674</v>
+      </c>
+      <c r="J96" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>759</v>
+      </c>
+      <c r="F97">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G97">
+        <f>HR组织架构菜单!$E$53</f>
+      </c>
+      <c r="H97" t="s">
+        <v>673</v>
+      </c>
+      <c r="I97" t="s">
+        <v>674</v>
+      </c>
+      <c r="J97" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>760</v>
+      </c>
+      <c r="F98">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G98">
+        <f>HR组织架构菜单!$E$53</f>
+      </c>
+      <c r="H98" t="s">
+        <v>673</v>
+      </c>
+      <c r="I98" t="s">
+        <v>674</v>
+      </c>
+      <c r="J98" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>761</v>
+      </c>
+      <c r="F99">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G99">
+        <f>HR组织架构菜单!$E$54</f>
+      </c>
+      <c r="H99" t="s">
+        <v>673</v>
+      </c>
+      <c r="I99" t="s">
+        <v>674</v>
+      </c>
+      <c r="J99" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>762</v>
+      </c>
+      <c r="F100">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G100">
+        <f>HR组织架构菜单!$E$54</f>
+      </c>
+      <c r="H100" t="s">
+        <v>673</v>
+      </c>
+      <c r="I100" t="s">
+        <v>674</v>
+      </c>
+      <c r="J100" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>763</v>
+      </c>
+      <c r="F101">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G101">
+        <f>HR组织架构菜单!$E$55</f>
+      </c>
+      <c r="H101" t="s">
+        <v>673</v>
+      </c>
+      <c r="I101" t="s">
+        <v>674</v>
+      </c>
+      <c r="J101" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>764</v>
+      </c>
+      <c r="F102">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G102">
+        <f>HR组织架构菜单!$E$55</f>
+      </c>
+      <c r="H102" t="s">
+        <v>673</v>
+      </c>
+      <c r="I102" t="s">
+        <v>674</v>
+      </c>
+      <c r="J102" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>765</v>
+      </c>
+      <c r="F103">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G103">
+        <f>HR组织架构菜单!$E$56</f>
+      </c>
+      <c r="H103" t="s">
+        <v>673</v>
+      </c>
+      <c r="I103" t="s">
+        <v>674</v>
+      </c>
+      <c r="J103" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>766</v>
+      </c>
+      <c r="F104">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G104">
+        <f>HR组织架构菜单!$E$56</f>
+      </c>
+      <c r="H104" t="s">
+        <v>673</v>
+      </c>
+      <c r="I104" t="s">
+        <v>674</v>
+      </c>
+      <c r="J104" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>767</v>
+      </c>
+      <c r="F105">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G105">
+        <f>HR组织架构菜单!$E$57</f>
+      </c>
+      <c r="H105" t="s">
+        <v>673</v>
+      </c>
+      <c r="I105" t="s">
+        <v>674</v>
+      </c>
+      <c r="J105" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>768</v>
+      </c>
+      <c r="F106">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G106">
+        <f>HR组织架构菜单!$E$57</f>
+      </c>
+      <c r="H106" t="s">
+        <v>673</v>
+      </c>
+      <c r="I106" t="s">
+        <v>674</v>
+      </c>
+      <c r="J106" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>769</v>
+      </c>
+      <c r="F107">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G107">
+        <f>HR组织架构菜单!$E$58</f>
+      </c>
+      <c r="H107" t="s">
+        <v>673</v>
+      </c>
+      <c r="I107" t="s">
+        <v>674</v>
+      </c>
+      <c r="J107" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>770</v>
+      </c>
+      <c r="F108">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G108">
+        <f>HR组织架构菜单!$E$58</f>
+      </c>
+      <c r="H108" t="s">
+        <v>673</v>
+      </c>
+      <c r="I108" t="s">
+        <v>674</v>
+      </c>
+      <c r="J108" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>771</v>
+      </c>
+      <c r="F109">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G109">
+        <f>HR组织架构菜单!$E$59</f>
+      </c>
+      <c r="H109" t="s">
+        <v>673</v>
+      </c>
+      <c r="I109" t="s">
+        <v>674</v>
+      </c>
+      <c r="J109" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>772</v>
+      </c>
+      <c r="F110">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G110">
+        <f>HR组织架构菜单!$E$59</f>
+      </c>
+      <c r="H110" t="s">
+        <v>673</v>
+      </c>
+      <c r="I110" t="s">
+        <v>674</v>
+      </c>
+      <c r="J110" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>773</v>
+      </c>
+      <c r="F111">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G111">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="H111" t="s">
+        <v>673</v>
+      </c>
+      <c r="I111" t="s">
+        <v>674</v>
+      </c>
+      <c r="J111" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>774</v>
+      </c>
+      <c r="F112">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G112">
+        <f>HR组织架构菜单!$E$60</f>
+      </c>
+      <c r="H112" t="s">
+        <v>673</v>
+      </c>
+      <c r="I112" t="s">
+        <v>674</v>
+      </c>
+      <c r="J112" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>775</v>
+      </c>
+      <c r="F113">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G113">
+        <f>HR组织架构菜单!$E$62</f>
+      </c>
+      <c r="H113" t="s">
+        <v>673</v>
+      </c>
+      <c r="I113" t="s">
+        <v>674</v>
+      </c>
+      <c r="J113" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>776</v>
+      </c>
+      <c r="F114">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G114">
+        <f>HR组织架构菜单!$E$62</f>
+      </c>
+      <c r="H114" t="s">
+        <v>673</v>
+      </c>
+      <c r="I114" t="s">
+        <v>674</v>
+      </c>
+      <c r="J114" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>777</v>
+      </c>
+      <c r="F115">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G115">
+        <f>HR组织架构菜单!$E$63</f>
+      </c>
+      <c r="H115" t="s">
+        <v>673</v>
+      </c>
+      <c r="I115" t="s">
+        <v>674</v>
+      </c>
+      <c r="J115" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>778</v>
+      </c>
+      <c r="F116">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G116">
+        <f>HR组织架构菜单!$E$63</f>
+      </c>
+      <c r="H116" t="s">
+        <v>673</v>
+      </c>
+      <c r="I116" t="s">
+        <v>674</v>
+      </c>
+      <c r="J116" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>779</v>
+      </c>
+      <c r="F117">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G117">
+        <f>HR组织架构菜单!$E$64</f>
+      </c>
+      <c r="H117" t="s">
+        <v>673</v>
+      </c>
+      <c r="I117" t="s">
+        <v>674</v>
+      </c>
+      <c r="J117" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>780</v>
+      </c>
+      <c r="F118">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G118">
+        <f>HR组织架构菜单!$E$64</f>
+      </c>
+      <c r="H118" t="s">
+        <v>673</v>
+      </c>
+      <c r="I118" t="s">
+        <v>674</v>
+      </c>
+      <c r="J118" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>781</v>
+      </c>
+      <c r="F119">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G119">
+        <f>HR组织架构菜单!$E$65</f>
+      </c>
+      <c r="H119" t="s">
+        <v>673</v>
+      </c>
+      <c r="I119" t="s">
+        <v>674</v>
+      </c>
+      <c r="J119" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>782</v>
+      </c>
+      <c r="F120">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G120">
+        <f>HR组织架构菜单!$E$65</f>
+      </c>
+      <c r="H120" t="s">
+        <v>673</v>
+      </c>
+      <c r="I120" t="s">
+        <v>674</v>
+      </c>
+      <c r="J120" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>783</v>
+      </c>
+      <c r="F121">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G121">
+        <f>HR组织架构菜单!$E$66</f>
+      </c>
+      <c r="H121" t="s">
+        <v>673</v>
+      </c>
+      <c r="I121" t="s">
+        <v>674</v>
+      </c>
+      <c r="J121" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>784</v>
+      </c>
+      <c r="F122">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G122">
+        <f>HR组织架构菜单!$E$66</f>
+      </c>
+      <c r="H122" t="s">
+        <v>673</v>
+      </c>
+      <c r="I122" t="s">
+        <v>674</v>
+      </c>
+      <c r="J122" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>785</v>
+      </c>
+      <c r="F123">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G123">
+        <f>HR组织架构菜单!$E$67</f>
+      </c>
+      <c r="H123" t="s">
+        <v>673</v>
+      </c>
+      <c r="I123" t="s">
+        <v>674</v>
+      </c>
+      <c r="J123" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>786</v>
+      </c>
+      <c r="F124">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G124">
+        <f>HR组织架构菜单!$E$67</f>
+      </c>
+      <c r="H124" t="s">
+        <v>673</v>
+      </c>
+      <c r="I124" t="s">
+        <v>674</v>
+      </c>
+      <c r="J124" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>787</v>
+      </c>
+      <c r="F125">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G125">
+        <f>HR组织架构菜单!$E$68</f>
+      </c>
+      <c r="H125" t="s">
+        <v>673</v>
+      </c>
+      <c r="I125" t="s">
+        <v>674</v>
+      </c>
+      <c r="J125" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="s">
+        <v>788</v>
+      </c>
+      <c r="F126">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G126">
+        <f>HR组织架构菜单!$E$68</f>
+      </c>
+      <c r="H126" t="s">
+        <v>673</v>
+      </c>
+      <c r="I126" t="s">
+        <v>674</v>
+      </c>
+      <c r="J126" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="s">
+        <v>789</v>
+      </c>
+      <c r="F127">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G127">
+        <f>HR组织架构菜单!$E$69</f>
+      </c>
+      <c r="H127" t="s">
+        <v>673</v>
+      </c>
+      <c r="I127" t="s">
+        <v>674</v>
+      </c>
+      <c r="J127" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="s">
+        <v>790</v>
+      </c>
+      <c r="F128">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G128">
+        <f>HR组织架构菜单!$E$69</f>
+      </c>
+      <c r="H128" t="s">
+        <v>673</v>
+      </c>
+      <c r="I128" t="s">
+        <v>674</v>
+      </c>
+      <c r="J128" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="s">
+        <v>791</v>
+      </c>
+      <c r="F129">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G129">
+        <f>HR组织架构菜单!$E$70</f>
+      </c>
+      <c r="H129" t="s">
+        <v>673</v>
+      </c>
+      <c r="I129" t="s">
+        <v>674</v>
+      </c>
+      <c r="J129" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="s">
+        <v>792</v>
+      </c>
+      <c r="F130">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G130">
+        <f>HR组织架构菜单!$E$70</f>
+      </c>
+      <c r="H130" t="s">
+        <v>673</v>
+      </c>
+      <c r="I130" t="s">
+        <v>674</v>
+      </c>
+      <c r="J130" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="s">
+        <v>793</v>
+      </c>
+      <c r="F131">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G131">
+        <f>HR组织架构菜单!$E$71</f>
+      </c>
+      <c r="H131" t="s">
+        <v>673</v>
+      </c>
+      <c r="I131" t="s">
+        <v>674</v>
+      </c>
+      <c r="J131" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="s">
+        <v>794</v>
+      </c>
+      <c r="F132">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G132">
+        <f>HR组织架构菜单!$E$71</f>
+      </c>
+      <c r="H132" t="s">
+        <v>673</v>
+      </c>
+      <c r="I132" t="s">
+        <v>674</v>
+      </c>
+      <c r="J132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="s">
+        <v>795</v>
+      </c>
+      <c r="F133">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G133">
+        <f>HR组织架构菜单!$E$72</f>
+      </c>
+      <c r="H133" t="s">
+        <v>673</v>
+      </c>
+      <c r="I133" t="s">
+        <v>674</v>
+      </c>
+      <c r="J133" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="s">
+        <v>796</v>
+      </c>
+      <c r="F134">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G134">
+        <f>HR组织架构菜单!$E$72</f>
+      </c>
+      <c r="H134" t="s">
+        <v>673</v>
+      </c>
+      <c r="I134" t="s">
+        <v>674</v>
+      </c>
+      <c r="J134" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="s">
+        <v>797</v>
+      </c>
+      <c r="F135">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G135">
+        <f>HR组织架构菜单!$E$73</f>
+      </c>
+      <c r="H135" t="s">
+        <v>673</v>
+      </c>
+      <c r="I135" t="s">
+        <v>674</v>
+      </c>
+      <c r="J135" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="s">
+        <v>798</v>
+      </c>
+      <c r="F136">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G136">
+        <f>HR组织架构菜单!$E$73</f>
+      </c>
+      <c r="H136" t="s">
+        <v>673</v>
+      </c>
+      <c r="I136" t="s">
+        <v>674</v>
+      </c>
+      <c r="J136" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="s">
+        <v>799</v>
+      </c>
+      <c r="F137">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G137">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="H137" t="s">
+        <v>673</v>
+      </c>
+      <c r="I137" t="s">
+        <v>674</v>
+      </c>
+      <c r="J137" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="s">
+        <v>800</v>
+      </c>
+      <c r="F138">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G138">
+        <f>HR组织架构菜单!$E$74</f>
+      </c>
+      <c r="H138" t="s">
+        <v>673</v>
+      </c>
+      <c r="I138" t="s">
+        <v>674</v>
+      </c>
+      <c r="J138" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="s">
+        <v>801</v>
+      </c>
+      <c r="F139">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G139">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="H139" t="s">
+        <v>673</v>
+      </c>
+      <c r="I139" t="s">
+        <v>674</v>
+      </c>
+      <c r="J139" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="s">
+        <v>802</v>
+      </c>
+      <c r="F140">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G140">
+        <f>HR组织架构菜单!$E$75</f>
+      </c>
+      <c r="H140" t="s">
+        <v>673</v>
+      </c>
+      <c r="I140" t="s">
+        <v>674</v>
+      </c>
+      <c r="J140" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="s">
+        <v>803</v>
+      </c>
+      <c r="F141">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G141">
+        <f>HR组织架构菜单!$E$76</f>
+      </c>
+      <c r="H141" t="s">
+        <v>673</v>
+      </c>
+      <c r="I141" t="s">
+        <v>674</v>
+      </c>
+      <c r="J141" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="s">
+        <v>804</v>
+      </c>
+      <c r="F142">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G142">
+        <f>HR组织架构菜单!$E$76</f>
+      </c>
+      <c r="H142" t="s">
+        <v>673</v>
+      </c>
+      <c r="I142" t="s">
+        <v>674</v>
+      </c>
+      <c r="J142" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="s">
+        <v>805</v>
+      </c>
+      <c r="F143">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G143">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="H143" t="s">
+        <v>673</v>
+      </c>
+      <c r="I143" t="s">
+        <v>674</v>
+      </c>
+      <c r="J143" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="s">
+        <v>806</v>
+      </c>
+      <c r="F144">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G144">
+        <f>HR组织架构菜单!$E$77</f>
+      </c>
+      <c r="H144" t="s">
+        <v>673</v>
+      </c>
+      <c r="I144" t="s">
+        <v>674</v>
+      </c>
+      <c r="J144" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="s">
+        <v>807</v>
+      </c>
+      <c r="F145">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G145">
+        <f>HR组织架构菜单!$E$79</f>
+      </c>
+      <c r="H145" t="s">
+        <v>673</v>
+      </c>
+      <c r="I145" t="s">
+        <v>674</v>
+      </c>
+      <c r="J145" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="s">
+        <v>808</v>
+      </c>
+      <c r="F146">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G146">
+        <f>HR组织架构菜单!$E$79</f>
+      </c>
+      <c r="H146" t="s">
+        <v>673</v>
+      </c>
+      <c r="I146" t="s">
+        <v>674</v>
+      </c>
+      <c r="J146" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="s">
+        <v>809</v>
+      </c>
+      <c r="F147">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G147">
+        <f>HR组织架构菜单!$E$80</f>
+      </c>
+      <c r="H147" t="s">
+        <v>673</v>
+      </c>
+      <c r="I147" t="s">
+        <v>674</v>
+      </c>
+      <c r="J147" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="s">
+        <v>810</v>
+      </c>
+      <c r="F148">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G148">
+        <f>HR组织架构菜单!$E$80</f>
+      </c>
+      <c r="H148" t="s">
+        <v>673</v>
+      </c>
+      <c r="I148" t="s">
+        <v>674</v>
+      </c>
+      <c r="J148" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="s">
+        <v>811</v>
+      </c>
+      <c r="F149">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G149">
+        <f>HR组织架构菜单!$E$81</f>
+      </c>
+      <c r="H149" t="s">
+        <v>673</v>
+      </c>
+      <c r="I149" t="s">
+        <v>674</v>
+      </c>
+      <c r="J149" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="s">
+        <v>812</v>
+      </c>
+      <c r="F150">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G150">
+        <f>HR组织架构菜单!$E$81</f>
+      </c>
+      <c r="H150" t="s">
+        <v>673</v>
+      </c>
+      <c r="I150" t="s">
+        <v>674</v>
+      </c>
+      <c r="J150" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="s">
+        <v>813</v>
+      </c>
+      <c r="F151">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G151">
+        <f>HR组织架构菜单!$E$82</f>
+      </c>
+      <c r="H151" t="s">
+        <v>673</v>
+      </c>
+      <c r="I151" t="s">
+        <v>674</v>
+      </c>
+      <c r="J151" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="s">
+        <v>814</v>
+      </c>
+      <c r="F152">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G152">
+        <f>HR组织架构菜单!$E$82</f>
+      </c>
+      <c r="H152" t="s">
+        <v>673</v>
+      </c>
+      <c r="I152" t="s">
+        <v>674</v>
+      </c>
+      <c r="J152" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="s">
+        <v>815</v>
+      </c>
+      <c r="F153">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G153">
+        <f>HR组织架构菜单!$E$83</f>
+      </c>
+      <c r="H153" t="s">
+        <v>673</v>
+      </c>
+      <c r="I153" t="s">
+        <v>674</v>
+      </c>
+      <c r="J153" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="s">
+        <v>816</v>
+      </c>
+      <c r="F154">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G154">
+        <f>HR组织架构菜单!$E$83</f>
+      </c>
+      <c r="H154" t="s">
+        <v>673</v>
+      </c>
+      <c r="I154" t="s">
+        <v>674</v>
+      </c>
+      <c r="J154" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="s">
+        <v>817</v>
+      </c>
+      <c r="F155">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G155">
+        <f>HR组织架构菜单!$E$84</f>
+      </c>
+      <c r="H155" t="s">
+        <v>673</v>
+      </c>
+      <c r="I155" t="s">
+        <v>674</v>
+      </c>
+      <c r="J155" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="s">
+        <v>818</v>
+      </c>
+      <c r="F156">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G156">
+        <f>HR组织架构菜单!$E$84</f>
+      </c>
+      <c r="H156" t="s">
+        <v>673</v>
+      </c>
+      <c r="I156" t="s">
+        <v>674</v>
+      </c>
+      <c r="J156" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="s">
+        <v>819</v>
+      </c>
+      <c r="F157">
+        <f>角色权限!$E$9</f>
+      </c>
+      <c r="G157">
+        <f>HR组织架构菜单!$E$85</f>
+      </c>
+      <c r="H157" t="s">
+        <v>673</v>
+      </c>
+      <c r="I157" t="s">
+        <v>674</v>
+      </c>
+      <c r="J157" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="s">
+        <v>820</v>
+      </c>
+      <c r="F158">
+        <f>角色权限!$E$10</f>
+      </c>
+      <c r="G158">
+        <f>HR组织架构菜单!$E$85</f>
+      </c>
+      <c r="H158" t="s">
+        <v>673</v>
+      </c>
+      <c r="I158" t="s">
+        <v>674</v>
+      </c>
+      <c r="J158" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -8886,66 +14425,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>821</v>
       </c>
       <c r="D7" t="s" s="82">
-        <v>455</v>
+        <v>822</v>
       </c>
       <c r="E7" t="s" s="83">
         <v>54</v>
       </c>
       <c r="F7" t="s" s="84">
-        <v>456</v>
+        <v>823</v>
       </c>
       <c r="G7" t="s" s="85">
-        <v>453</v>
+        <v>671</v>
       </c>
       <c r="H7" t="s">
-        <v>457</v>
+        <v>824</v>
       </c>
       <c r="I7" t="s">
-        <v>427</v>
+        <v>634</v>
       </c>
       <c r="J7" t="s">
-        <v>458</v>
+        <v>825</v>
       </c>
       <c r="K7" t="s">
-        <v>459</v>
+        <v>826</v>
       </c>
       <c r="L7" t="s">
-        <v>460</v>
+        <v>827</v>
       </c>
       <c r="M7" t="s">
-        <v>461</v>
+        <v>828</v>
       </c>
       <c r="N7" t="s">
-        <v>462</v>
+        <v>829</v>
       </c>
       <c r="O7" t="s">
-        <v>463</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>464</v>
+        <v>831</v>
       </c>
       <c r="F8" t="s">
-        <v>465</v>
+        <v>832</v>
       </c>
       <c r="G8" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>467</v>
+        <v>834</v>
       </c>
       <c r="J8" t="s">
-        <v>468</v>
+        <v>835</v>
       </c>
       <c r="K8" t="s">
-        <v>468</v>
+        <v>835</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -8959,19 +14498,19 @@
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>469</v>
+        <v>836</v>
       </c>
       <c r="F9" t="s">
-        <v>470</v>
+        <v>837</v>
       </c>
       <c r="G9" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>467</v>
+        <v>834</v>
       </c>
       <c r="M9" t="s">
         <v>81</v>
@@ -8991,33 +14530,33 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>838</v>
       </c>
       <c r="D11" t="s" s="86">
-        <v>472</v>
+        <v>839</v>
       </c>
       <c r="E11" t="s" s="87">
-        <v>473</v>
+        <v>840</v>
       </c>
       <c r="F11" t="s" s="88">
-        <v>474</v>
+        <v>841</v>
       </c>
       <c r="G11" t="s" s="89">
-        <v>475</v>
+        <v>842</v>
       </c>
       <c r="H11" t="s" s="90">
-        <v>476</v>
+        <v>843</v>
       </c>
       <c r="I11" t="s">
-        <v>477</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F12" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G12">
         <f>HR组织架构菜单!$E$8</f>
@@ -9026,15 +14565,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I12" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F13" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G13">
         <f>HR组织架构菜单!$E$9</f>
@@ -9043,15 +14582,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I13" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F14" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G14">
         <f>HR组织架构菜单!$E$11</f>
@@ -9060,15 +14599,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I14" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F15" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G15">
         <f>HR组织架构菜单!$E$12</f>
@@ -9077,15 +14616,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I15" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F16" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G16">
         <f>HR组织架构菜单!$E$13</f>
@@ -9094,15 +14633,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I16" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F17" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G17">
         <f>HR组织架构菜单!$E$14</f>
@@ -9111,15 +14650,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I17" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F18" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G18">
         <f>HR组织架构菜单!$E$15</f>
@@ -9128,15 +14667,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I18" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F19" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G19">
         <f>HR组织架构菜单!$E$16</f>
@@ -9145,15 +14684,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I19" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G20">
         <f>HR组织架构菜单!$E$17</f>
@@ -9162,15 +14701,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I20" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F21" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G21">
         <f>HR组织架构菜单!$E$18</f>
@@ -9179,15 +14718,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I21" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F22" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G22">
         <f>HR组织架构菜单!$E$19</f>
@@ -9196,15 +14735,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I22" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F23" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G23">
         <f>HR组织架构菜单!$E$20</f>
@@ -9213,15 +14752,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I23" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F24" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G24">
         <f>HR组织架构菜单!$E$21</f>
@@ -9230,15 +14769,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F25" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G25">
         <f>HR组织架构菜单!$E$22</f>
@@ -9247,15 +14786,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I25" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F26" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G26">
         <f>HR组织架构菜单!$E$23</f>
@@ -9264,15 +14803,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I26" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F27" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G27">
         <f>HR组织架构菜单!$E$24</f>
@@ -9281,15 +14820,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I27" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F28" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G28">
         <f>HR组织架构菜单!$E$25</f>
@@ -9298,15 +14837,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I28" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F29" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G29">
         <f>HR组织架构菜单!$E$26</f>
@@ -9315,15 +14854,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I29" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G30">
         <f>HR组织架构菜单!$E$27</f>
@@ -9332,15 +14871,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I30" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G31">
         <f>HR组织架构菜单!$E$28</f>
@@ -9349,15 +14888,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I31" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F32" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G32">
         <f>HR组织架构菜单!$E$29</f>
@@ -9366,15 +14905,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I32" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G33">
         <f>HR组织架构菜单!$E$30</f>
@@ -9383,15 +14922,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I33" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F34" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G34">
         <f>HR组织架构菜单!$E$31</f>
@@ -9400,15 +14939,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I34" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F35" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G35">
         <f>HR组织架构菜单!$E$32</f>
@@ -9417,15 +14956,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I35" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F36" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G36">
         <f>HR组织架构菜单!$E$33</f>
@@ -9434,15 +14973,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I36" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F37" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G37">
         <f>HR组织架构菜单!$E$34</f>
@@ -9451,15 +14990,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I37" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F38" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G38">
         <f>HR组织架构菜单!$E$35</f>
@@ -9468,15 +15007,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I38" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F39" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G39">
         <f>HR组织架构菜单!$E$36</f>
@@ -9485,15 +15024,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I39" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F40" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G40">
         <f>HR组织架构菜单!$E$37</f>
@@ -9502,15 +15041,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I40" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F41" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G41">
         <f>HR组织架构菜单!$E$38</f>
@@ -9519,15 +15058,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I41" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F42" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G42">
         <f>HR组织架构菜单!$E$39</f>
@@ -9536,15 +15075,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I42" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F43" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G43">
         <f>HR组织架构菜单!$E$40</f>
@@ -9553,15 +15092,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I43" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F44" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G44">
         <f>HR组织架构菜单!$E$41</f>
@@ -9570,15 +15109,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I44" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F45" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G45">
         <f>HR组织架构菜单!$E$42</f>
@@ -9587,15 +15126,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I45" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F46" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G46">
         <f>HR组织架构菜单!$E$43</f>
@@ -9604,15 +15143,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F47" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G47">
         <f>HR组织架构菜单!$E$44</f>
@@ -9621,15 +15160,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I47" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G48">
         <f>HR组织架构菜单!$E$45</f>
@@ -9638,15 +15177,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I48" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F49" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G49">
         <f>HR组织架构菜单!$E$46</f>
@@ -9655,15 +15194,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F50" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G50">
         <f>HR组织架构菜单!$E$47</f>
@@ -9672,15 +15211,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I50" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F51" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G51">
         <f>HR组织架构菜单!$E$48</f>
@@ -9689,15 +15228,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I51" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F52" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G52">
         <f>HR组织架构菜单!$E$49</f>
@@ -9706,15 +15245,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I52" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F53" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G53">
         <f>HR组织架构菜单!$E$50</f>
@@ -9723,15 +15262,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I53" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F54" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G54">
         <f>HR组织架构菜单!$E$51</f>
@@ -9740,15 +15279,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G55">
         <f>HR组织架构菜单!$E$52</f>
@@ -9757,15 +15296,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I55" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G56">
         <f>HR组织架构菜单!$E$53</f>
@@ -9774,15 +15313,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G57">
         <f>HR组织架构菜单!$E$54</f>
@@ -9791,15 +15330,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F58" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G58">
         <f>HR组织架构菜单!$E$55</f>
@@ -9808,15 +15347,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G59">
         <f>HR组织架构菜单!$E$56</f>
@@ -9825,15 +15364,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I59" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F60" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G60">
         <f>HR组织架构菜单!$E$57</f>
@@ -9842,15 +15381,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I60" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F61" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G61">
         <f>HR组织架构菜单!$E$58</f>
@@ -9859,15 +15398,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I61" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F62" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G62">
         <f>HR组织架构菜单!$E$59</f>
@@ -9876,15 +15415,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I62" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F63" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G63">
         <f>HR组织架构菜单!$E$60</f>
@@ -9893,15 +15432,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I63" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F64" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G64">
         <f>HR组织架构菜单!$E$61</f>
@@ -9910,15 +15449,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I64" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F65" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G65">
         <f>HR组织架构菜单!$E$62</f>
@@ -9927,15 +15466,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I65" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G66">
         <f>HR组织架构菜单!$E$63</f>
@@ -9944,15 +15483,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I66" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F67" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G67">
         <f>HR组织架构菜单!$E$64</f>
@@ -9961,15 +15500,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I67" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F68" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G68">
         <f>HR组织架构菜单!$E$65</f>
@@ -9978,15 +15517,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I68" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F69" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G69">
         <f>HR组织架构菜单!$E$66</f>
@@ -9995,15 +15534,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I69" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F70" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G70">
         <f>HR组织架构菜单!$E$67</f>
@@ -10012,15 +15551,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I70" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G71">
         <f>HR组织架构菜单!$E$68</f>
@@ -10029,15 +15568,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I71" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F72" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G72">
         <f>HR组织架构菜单!$E$69</f>
@@ -10046,15 +15585,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I72" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F73" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G73">
         <f>HR组织架构菜单!$E$70</f>
@@ -10063,15 +15602,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I73" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F74" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G74">
         <f>HR组织架构菜单!$E$71</f>
@@ -10080,15 +15619,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I74" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F75" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G75">
         <f>HR组织架构菜单!$E$74</f>
@@ -10097,15 +15636,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I75" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F76" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G76">
         <f>HR组织架构菜单!$E$75</f>
@@ -10114,15 +15653,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I76" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F77" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G77">
         <f>HR组织架构菜单!$E$76</f>
@@ -10131,15 +15670,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I77" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F78" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G78">
         <f>HR组织架构菜单!$E$77</f>
@@ -10148,15 +15687,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I78" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G79">
         <f>HR组织架构菜单!$E$78</f>
@@ -10165,15 +15704,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I79" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F80" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G80">
         <f>HR组织架构菜单!$E$79</f>
@@ -10182,15 +15721,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I80" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F81" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G81">
         <f>HR组织架构菜单!$E$80</f>
@@ -10199,15 +15738,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I81" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F82" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G82">
         <f>HR组织架构菜单!$E$81</f>
@@ -10216,15 +15755,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I82" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F83" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G83">
         <f>HR组织架构菜单!$E$82</f>
@@ -10233,15 +15772,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I83" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F84" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G84">
         <f>HR组织架构菜单!$E$83</f>
@@ -10250,15 +15789,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I84" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F85" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G85">
         <f>HR组织架构菜单!$E$84</f>
@@ -10267,15 +15806,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I85" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F86" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G86">
         <f>HR组织架构菜单!$E$85</f>
@@ -10284,15 +15823,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I86" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F87" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G87">
         <f>HR组织架构菜单!$E$72</f>
@@ -10301,15 +15840,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I87" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F88" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G88">
         <f>HR组织架构菜单!$E$73</f>
@@ -10318,15 +15857,15 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I88" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>478</v>
+        <v>845</v>
       </c>
       <c r="F89" t="s">
-        <v>466</v>
+        <v>833</v>
       </c>
       <c r="G89">
         <f>HR组织架构菜单!$E$10</f>
@@ -10335,7 +15874,7 @@
         <f>菜单标签数据!$E$8</f>
       </c>
       <c r="I89" t="s">
-        <v>479</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
